--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.29275283261864</v>
+        <v>1.422753333333333</v>
       </c>
       <c r="H2">
-        <v>1.29275283261864</v>
+        <v>4.26826</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.12819809555384</v>
+        <v>3.76917</v>
       </c>
       <c r="N2">
-        <v>2.12819809555384</v>
+        <v>11.30751</v>
       </c>
       <c r="O2">
-        <v>0.01573081063622635</v>
+        <v>0.02686645020528053</v>
       </c>
       <c r="P2">
-        <v>0.01573081063622635</v>
+        <v>0.02686645020528053</v>
       </c>
       <c r="Q2">
-        <v>2.751234116400822</v>
+        <v>5.3625991814</v>
       </c>
       <c r="R2">
-        <v>2.751234116400822</v>
+        <v>48.2633926326</v>
       </c>
       <c r="S2">
-        <v>0.01573081063622635</v>
+        <v>0.02686645020528053</v>
       </c>
       <c r="T2">
-        <v>0.01573081063622635</v>
+        <v>0.02686645020528053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.29275283261864</v>
+        <v>1.422753333333333</v>
       </c>
       <c r="H3">
-        <v>1.29275283261864</v>
+        <v>4.26826</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.29144960819239</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N3">
-        <v>82.29144960819239</v>
+        <v>247.44181</v>
       </c>
       <c r="O3">
-        <v>0.6082663138696941</v>
+        <v>0.5879175050094569</v>
       </c>
       <c r="P3">
-        <v>0.6082663138696941</v>
+        <v>0.5879175050094571</v>
       </c>
       <c r="Q3">
-        <v>106.3825045812848</v>
+        <v>117.3495533278444</v>
       </c>
       <c r="R3">
-        <v>106.3825045812848</v>
+        <v>1056.1459799506</v>
       </c>
       <c r="S3">
-        <v>0.6082663138696941</v>
+        <v>0.5879175050094569</v>
       </c>
       <c r="T3">
-        <v>0.6082663138696941</v>
+        <v>0.5879175050094571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.29275283261864</v>
+        <v>1.422753333333333</v>
       </c>
       <c r="H4">
-        <v>1.29275283261864</v>
+        <v>4.26826</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.467485982705433</v>
+        <v>0.5716056666666667</v>
       </c>
       <c r="N4">
-        <v>0.467485982705433</v>
+        <v>1.714817</v>
       </c>
       <c r="O4">
-        <v>0.003455474132973309</v>
+        <v>0.004074375838860061</v>
       </c>
       <c r="P4">
-        <v>0.003455474132973309</v>
+        <v>0.004074375838860062</v>
       </c>
       <c r="Q4">
-        <v>0.604343828351957</v>
+        <v>0.8132538676022222</v>
       </c>
       <c r="R4">
-        <v>0.604343828351957</v>
+        <v>7.31928480842</v>
       </c>
       <c r="S4">
-        <v>0.003455474132973309</v>
+        <v>0.004074375838860061</v>
       </c>
       <c r="T4">
-        <v>0.003455474132973309</v>
+        <v>0.004074375838860062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.29275283261864</v>
+        <v>1.422753333333333</v>
       </c>
       <c r="H5">
-        <v>1.29275283261864</v>
+        <v>4.26826</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.4013867063138</v>
+        <v>53.47143866666666</v>
       </c>
       <c r="N5">
-        <v>50.4013867063138</v>
+        <v>160.414316</v>
       </c>
       <c r="O5">
-        <v>0.3725474013611063</v>
+        <v>0.3811416689464024</v>
       </c>
       <c r="P5">
-        <v>0.3725474013611063</v>
+        <v>0.3811416689464024</v>
       </c>
       <c r="Q5">
-        <v>65.15653543249464</v>
+        <v>76.07666760112889</v>
       </c>
       <c r="R5">
-        <v>65.15653543249464</v>
+        <v>684.6900084101599</v>
       </c>
       <c r="S5">
-        <v>0.3725474013611063</v>
+        <v>0.3811416689464024</v>
       </c>
       <c r="T5">
-        <v>0.3725474013611063</v>
+        <v>0.3811416689464024</v>
       </c>
     </row>
   </sheetData>
